--- a/GST Update/Consignor/Executable File/dist/GST.xlsx
+++ b/GST Update/Consignor/Executable File/dist/GST.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="51">
   <si>
     <t>UID</t>
   </si>
@@ -30,10 +30,16 @@
     <t>GST</t>
   </si>
   <si>
+    <t>Status</t>
+  </si>
+  <si>
     <t>dd 5</t>
   </si>
   <si>
     <t>07AAACK7300E1Z1</t>
+  </si>
+  <si>
+    <t>Passed</t>
   </si>
   <si>
     <t>dd 30</t>
@@ -528,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,7 +545,7 @@
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,258 +555,330 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>57</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>58</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>59</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>60</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
